--- a/Tags.xlsx
+++ b/Tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Paradox Interactive\Hearts of Iron IV\mod\megrez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A586AB62-8ECF-418A-872C-8FA9EF8F9704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98512096-3944-4AD2-B3E9-A612E83FF23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="855" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUsers최병호DesktopcountriesABD - " sheetId="3" r:id="rId1"/>
@@ -5905,10 +5905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스와질랜드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시리아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6346,6 +6342,10 @@
   </si>
   <si>
     <t>GMJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스와질란드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6712,8 +6712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A770-6F9C-4BA3-AD49-64D9833C1BCB}">
   <dimension ref="A1:D643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="B462" sqref="B462"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="B545" sqref="B545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B159" t="s">
         <v>149</v>
@@ -12528,7 +12528,7 @@
         <v>507</v>
       </c>
       <c r="C528" t="s">
-        <v>1779</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -12539,7 +12539,7 @@
         <v>508</v>
       </c>
       <c r="C529" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -12561,7 +12561,7 @@
         <v>509</v>
       </c>
       <c r="C531" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -12572,7 +12572,7 @@
         <v>510</v>
       </c>
       <c r="C532" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -12583,7 +12583,7 @@
         <v>511</v>
       </c>
       <c r="C533" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -12594,7 +12594,7 @@
         <v>512</v>
       </c>
       <c r="C534" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -12605,7 +12605,7 @@
         <v>513</v>
       </c>
       <c r="C535" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -12616,7 +12616,7 @@
         <v>514</v>
       </c>
       <c r="C536" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -12627,7 +12627,7 @@
         <v>515</v>
       </c>
       <c r="C537" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -12649,7 +12649,7 @@
         <v>517</v>
       </c>
       <c r="C539" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -12660,7 +12660,7 @@
         <v>518</v>
       </c>
       <c r="C540" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -12671,10 +12671,10 @@
         <v>519</v>
       </c>
       <c r="C541" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D541" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -12685,10 +12685,10 @@
         <v>520</v>
       </c>
       <c r="C542" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D542" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -12699,10 +12699,10 @@
         <v>521</v>
       </c>
       <c r="C543" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D543" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -12713,10 +12713,10 @@
         <v>522</v>
       </c>
       <c r="C544" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D544" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -12727,10 +12727,10 @@
         <v>523</v>
       </c>
       <c r="C545" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D545" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -12741,10 +12741,10 @@
         <v>524</v>
       </c>
       <c r="C546" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D546" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -12755,10 +12755,10 @@
         <v>525</v>
       </c>
       <c r="C547" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D547" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -12769,10 +12769,10 @@
         <v>526</v>
       </c>
       <c r="C548" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D548" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -12783,10 +12783,10 @@
         <v>527</v>
       </c>
       <c r="C549" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D549" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -12797,10 +12797,10 @@
         <v>528</v>
       </c>
       <c r="C550" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D550" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -12811,10 +12811,10 @@
         <v>529</v>
       </c>
       <c r="C551" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D551" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -12825,10 +12825,10 @@
         <v>530</v>
       </c>
       <c r="C552" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D552" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -12839,10 +12839,10 @@
         <v>531</v>
       </c>
       <c r="C553" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D553" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -12853,10 +12853,10 @@
         <v>532</v>
       </c>
       <c r="C554" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D554" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -12867,10 +12867,10 @@
         <v>533</v>
       </c>
       <c r="C555" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D555" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -12881,10 +12881,10 @@
         <v>534</v>
       </c>
       <c r="C556" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D556" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -12895,10 +12895,10 @@
         <v>535</v>
       </c>
       <c r="C557" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D557" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -12909,10 +12909,10 @@
         <v>536</v>
       </c>
       <c r="C558" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D558" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -12923,10 +12923,10 @@
         <v>537</v>
       </c>
       <c r="C559" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D559" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -12937,10 +12937,10 @@
         <v>538</v>
       </c>
       <c r="C560" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D560" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -12951,10 +12951,10 @@
         <v>539</v>
       </c>
       <c r="C561" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D561" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -12965,10 +12965,10 @@
         <v>540</v>
       </c>
       <c r="C562" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D562" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -12979,10 +12979,10 @@
         <v>541</v>
       </c>
       <c r="C563" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D563" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -12993,10 +12993,10 @@
         <v>542</v>
       </c>
       <c r="C564" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D564" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -13007,10 +13007,10 @@
         <v>543</v>
       </c>
       <c r="C565" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D565" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -13021,7 +13021,7 @@
         <v>544</v>
       </c>
       <c r="C566" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -13032,7 +13032,7 @@
         <v>545</v>
       </c>
       <c r="C567" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -13043,7 +13043,7 @@
         <v>546</v>
       </c>
       <c r="C568" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -13054,7 +13054,7 @@
         <v>547</v>
       </c>
       <c r="C569" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -13065,7 +13065,7 @@
         <v>548</v>
       </c>
       <c r="C570" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -13076,7 +13076,7 @@
         <v>549</v>
       </c>
       <c r="C571" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -13087,7 +13087,7 @@
         <v>550</v>
       </c>
       <c r="C572" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -13098,7 +13098,7 @@
         <v>551</v>
       </c>
       <c r="C573" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -13109,7 +13109,7 @@
         <v>552</v>
       </c>
       <c r="C574" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -13120,7 +13120,7 @@
         <v>553</v>
       </c>
       <c r="C575" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -13131,7 +13131,7 @@
         <v>554</v>
       </c>
       <c r="C576" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -13142,7 +13142,7 @@
         <v>555</v>
       </c>
       <c r="C577" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
@@ -13153,7 +13153,7 @@
         <v>556</v>
       </c>
       <c r="C578" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
@@ -13164,7 +13164,7 @@
         <v>557</v>
       </c>
       <c r="C579" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
@@ -13175,7 +13175,7 @@
         <v>558</v>
       </c>
       <c r="C580" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
@@ -13186,7 +13186,7 @@
         <v>559</v>
       </c>
       <c r="C581" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
@@ -13197,7 +13197,7 @@
         <v>560</v>
       </c>
       <c r="C582" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -13208,7 +13208,7 @@
         <v>561</v>
       </c>
       <c r="C583" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -13219,7 +13219,7 @@
         <v>33</v>
       </c>
       <c r="C584" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
@@ -13230,7 +13230,7 @@
         <v>562</v>
       </c>
       <c r="C585" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
@@ -13241,7 +13241,7 @@
         <v>563</v>
       </c>
       <c r="C586" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -13252,7 +13252,7 @@
         <v>564</v>
       </c>
       <c r="C587" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -13263,7 +13263,7 @@
         <v>565</v>
       </c>
       <c r="C588" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
@@ -13274,7 +13274,7 @@
         <v>565</v>
       </c>
       <c r="C589" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -13285,7 +13285,7 @@
         <v>566</v>
       </c>
       <c r="C590" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -13296,7 +13296,7 @@
         <v>567</v>
       </c>
       <c r="C591" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
@@ -13307,7 +13307,7 @@
         <v>568</v>
       </c>
       <c r="C592" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
@@ -13318,7 +13318,7 @@
         <v>569</v>
       </c>
       <c r="C593" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -13329,7 +13329,7 @@
         <v>570</v>
       </c>
       <c r="C594" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -13340,7 +13340,7 @@
         <v>571</v>
       </c>
       <c r="C595" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
@@ -13351,7 +13351,7 @@
         <v>572</v>
       </c>
       <c r="C596" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
@@ -13362,7 +13362,7 @@
         <v>573</v>
       </c>
       <c r="C597" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
@@ -13373,7 +13373,7 @@
         <v>574</v>
       </c>
       <c r="C598" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
@@ -13395,7 +13395,7 @@
         <v>577</v>
       </c>
       <c r="C600" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
@@ -13406,7 +13406,7 @@
         <v>578</v>
       </c>
       <c r="C601" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
@@ -13417,7 +13417,7 @@
         <v>579</v>
       </c>
       <c r="C602" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
@@ -13428,7 +13428,7 @@
         <v>580</v>
       </c>
       <c r="C603" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -13439,7 +13439,7 @@
         <v>581</v>
       </c>
       <c r="C604" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
@@ -13450,7 +13450,7 @@
         <v>582</v>
       </c>
       <c r="C605" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -13461,7 +13461,7 @@
         <v>583</v>
       </c>
       <c r="C606" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -13472,7 +13472,7 @@
         <v>584</v>
       </c>
       <c r="C607" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
@@ -13483,7 +13483,7 @@
         <v>585</v>
       </c>
       <c r="C608" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
@@ -13494,7 +13494,7 @@
         <v>586</v>
       </c>
       <c r="C609" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
@@ -13505,7 +13505,7 @@
         <v>587</v>
       </c>
       <c r="C610" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -13527,7 +13527,7 @@
         <v>588</v>
       </c>
       <c r="C612" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -13538,7 +13538,7 @@
         <v>589</v>
       </c>
       <c r="C613" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
@@ -13549,7 +13549,7 @@
         <v>590</v>
       </c>
       <c r="C614" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -13560,7 +13560,7 @@
         <v>592</v>
       </c>
       <c r="C615" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -13571,7 +13571,7 @@
         <v>593</v>
       </c>
       <c r="C616" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
@@ -13582,7 +13582,7 @@
         <v>594</v>
       </c>
       <c r="C617" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
@@ -13593,7 +13593,7 @@
         <v>595</v>
       </c>
       <c r="C618" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -13604,7 +13604,7 @@
         <v>591</v>
       </c>
       <c r="C619" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
@@ -13615,7 +13615,7 @@
         <v>596</v>
       </c>
       <c r="C620" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
@@ -13626,7 +13626,7 @@
         <v>597</v>
       </c>
       <c r="C621" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
@@ -13637,7 +13637,7 @@
         <v>598</v>
       </c>
       <c r="C622" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
@@ -13648,7 +13648,7 @@
         <v>599</v>
       </c>
       <c r="C623" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -13670,7 +13670,7 @@
         <v>419</v>
       </c>
       <c r="C625" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -13692,7 +13692,7 @@
         <v>601</v>
       </c>
       <c r="C627" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -13703,7 +13703,7 @@
         <v>602</v>
       </c>
       <c r="C628" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -13714,7 +13714,7 @@
         <v>603</v>
       </c>
       <c r="C629" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -13725,7 +13725,7 @@
         <v>604</v>
       </c>
       <c r="C630" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
@@ -13736,7 +13736,7 @@
         <v>605</v>
       </c>
       <c r="C631" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -13747,7 +13747,7 @@
         <v>606</v>
       </c>
       <c r="C632" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -13758,7 +13758,7 @@
         <v>607</v>
       </c>
       <c r="C633" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -13769,7 +13769,7 @@
         <v>608</v>
       </c>
       <c r="C634" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
@@ -13780,7 +13780,7 @@
         <v>609</v>
       </c>
       <c r="C635" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
@@ -13791,7 +13791,7 @@
         <v>610</v>
       </c>
       <c r="C636" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
@@ -13802,7 +13802,7 @@
         <v>611</v>
       </c>
       <c r="C637" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
@@ -13813,7 +13813,7 @@
         <v>612</v>
       </c>
       <c r="C638" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
@@ -13835,7 +13835,7 @@
         <v>614</v>
       </c>
       <c r="C640" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
@@ -13846,7 +13846,7 @@
         <v>615</v>
       </c>
       <c r="C641" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
@@ -13857,7 +13857,7 @@
         <v>616</v>
       </c>
       <c r="C642" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -13868,7 +13868,7 @@
         <v>617</v>
       </c>
       <c r="C643" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
   </sheetData>
